--- a/javacourse/ExcelFiles.xlsx
+++ b/javacourse/ExcelFiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\javacourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\git_experimental\javacourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3FE3D6-C850-4C82-B7EF-EB0EB776517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17130A4E-70AD-4860-920A-5A958C160910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="2910" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
-  <si>
-    <t>13502875353</t>
-  </si>
-  <si>
-    <t>17777909611</t>
-  </si>
-  <si>
-    <t>13862034346</t>
-  </si>
-  <si>
-    <t>15234162178</t>
-  </si>
-  <si>
-    <t>15865250811</t>
-  </si>
-  <si>
-    <t>13853394204</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>软件学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,9 +48,6 @@
     <t>202300300079</t>
   </si>
   <si>
-    <t>苗怀睿</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
@@ -81,9 +60,6 @@
     <t>202300300182</t>
   </si>
   <si>
-    <t>田凌宇</t>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
@@ -96,9 +72,6 @@
     <t>202300300290</t>
   </si>
   <si>
-    <t>李传博</t>
-  </si>
-  <si>
     <t>026</t>
   </si>
   <si>
@@ -111,9 +84,6 @@
     <t>202300300055</t>
   </si>
   <si>
-    <t>李国庆</t>
-  </si>
-  <si>
     <t>027</t>
   </si>
   <si>
@@ -126,9 +96,6 @@
     <t>202300300064</t>
   </si>
   <si>
-    <t>钱杏诚</t>
-  </si>
-  <si>
     <t>028</t>
   </si>
   <si>
@@ -141,9 +108,6 @@
     <t>202300300312</t>
   </si>
   <si>
-    <t>孙涔朔</t>
-  </si>
-  <si>
     <t>029</t>
   </si>
   <si>
@@ -156,9 +120,6 @@
     <t>202300300122</t>
   </si>
   <si>
-    <t>柴方宇</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
@@ -171,9 +132,6 @@
     <t>202300300251</t>
   </si>
   <si>
-    <t>傅朝阳</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
@@ -181,6 +139,48 @@
   </si>
   <si>
     <t>153@qq.com</t>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1385339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1350287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1315235</t>
+  </si>
+  <si>
+    <t>1280183</t>
+  </si>
+  <si>
+    <t>1245131</t>
+  </si>
+  <si>
+    <t>1210079</t>
+  </si>
+  <si>
+    <t>1175027</t>
+  </si>
+  <si>
+    <t>1139975</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="O24" sqref="O23:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -545,282 +545,282 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
